--- a/server/tests/data/excel/insert_notification_test_data.xlsx
+++ b/server/tests/data/excel/insert_notification_test_data.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-06-07 12:27:37</t>
+          <t>2025-06-07 13:13:37</t>
         </is>
       </c>
     </row>

--- a/server/tests/data/excel/insert_notification_test_data.xlsx
+++ b/server/tests/data/excel/insert_notification_test_data.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -1073,12 +1073,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Label must be 1-40 characters long.</t>
+          <t>['Label must be 1-40 characters long.']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Label must be 1-40 characters long.</t>
+          <t>[{'type': 'missing', 'loc': ['body', 'label'], 'msg': 'Field required', 'input': {'description': 'Khi khách muốn đặt hàng', 'color': '#2196F3', 'content': 'Test notification content with {{param_name}}', 'params': [{'index': 0, 'param_name': 'customer_name', 'param_type': 'String', 'description': 'Tên khách hàng'}], 'status': 'published'}}]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Description must not be empty.</t>
+          <t>[{'type': 'missing', 'loc': ['body', 'description'], 'msg': 'Field required', 'input': {'label': 'đặt hàng', 'color': '#2196F3', 'content': 'Test notification content with {{param_name}}', 'params': [{'index': 0, 'param_name': 'customer_name', 'param_type': 'String', 'description': 'Tên khách hàng'}], 'status': 'published'}}]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1214,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ParamName at index 0 must not be empty.</t>
+          <t>['ParamName at index 0 must not be empty.']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ParamType at index 0 must be one of ['String', 'Integer', 'Numeric', 'Boolean', 'DateTime'].</t>
+          <t>["ParamType at index 0 must be one of ['String', 'Integer', 'Numeric', 'Boolean', 'DateTime']."]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -1313,12 +1313,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ParamDescription at index 0 must not be empty.</t>
+          <t>['ParamDescription at index 0 must not be empty.']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>

--- a/server/tests/data/excel/insert_notification_test_data.xlsx
+++ b/server/tests/data/excel/insert_notification_test_data.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>

--- a/server/tests/data/excel/insert_notification_test_data.xlsx
+++ b/server/tests/data/excel/insert_notification_test_data.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
